--- a/excel/UO.xlsx
+++ b/excel/UO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents_D\Teletravail\expleoWebsite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87195E9A-E745-4D45-B63E-1A5A613BECA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC89EE2E-9C38-4791-A8F0-D9C8C05528C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>num_uo</t>
   </si>
@@ -67,66 +64,27 @@
     <t>client</t>
   </si>
   <si>
-    <t>19V10017</t>
-  </si>
-  <si>
-    <t>19V10050</t>
-  </si>
-  <si>
-    <t>SYNTH</t>
-  </si>
-  <si>
     <t>NUM</t>
   </si>
   <si>
-    <t>SYST</t>
-  </si>
-  <si>
-    <t>PREPA</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>HHN</t>
   </si>
   <si>
-    <t>HJB PHEV</t>
-  </si>
-  <si>
     <t>AEB</t>
   </si>
   <si>
-    <t>AD1</t>
-  </si>
-  <si>
-    <t>Vivier</t>
-  </si>
-  <si>
     <t>En Cours</t>
   </si>
   <si>
-    <t>A temps</t>
-  </si>
-  <si>
     <t>En retard</t>
   </si>
   <si>
     <t>Square SUV</t>
   </si>
   <si>
-    <t>CMFB</t>
-  </si>
-  <si>
     <t>LONGI</t>
   </si>
   <si>
@@ -136,60 +94,15 @@
     <t>WP</t>
   </si>
   <si>
-    <t>VPC</t>
-  </si>
-  <si>
     <t>TGA</t>
   </si>
   <si>
-    <t>ABPT1</t>
-  </si>
-  <si>
-    <t>SOP+15s</t>
-  </si>
-  <si>
     <t>ABVC</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>SA105</t>
   </si>
   <si>
-    <t>SA124</t>
-  </si>
-  <si>
-    <t>0   2019-03-28 23:00:00+00:00
-1   2019-03-31 22:00:00+00:00
-2   2019-10-17 22:00:00+00:00
-3   2020-01-22 23:00:00+00:00
-4   2019-03-01 23:00:00+00:00
-5   2019-03-01 23:00:00+00:00
-Name: date_debut_uo, dtype: datetime64[ns, UTC]</t>
-  </si>
-  <si>
-    <t>0   2021-08-30 22:00:00+00:00
-1   2021-09-02 22:00:00+00:00
-2   2020-12-05 23:00:00+00:00
-3   2020-06-02 22:00:00+00:00
-4   2021-06-02 22:00:00+00:00
-5   2021-06-02 22:00:00+00:00
-Name: date_livraison, dtype: datetime64[ns, UTC]</t>
-  </si>
-  <si>
-    <t>19V10075</t>
-  </si>
-  <si>
-    <t>19V10076</t>
-  </si>
-  <si>
-    <t>19V10080</t>
-  </si>
-  <si>
-    <t>19V10003</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -205,28 +118,16 @@
     <t>pilote</t>
   </si>
   <si>
-    <t>Dubost</t>
-  </si>
-  <si>
-    <t>Arya</t>
-  </si>
-  <si>
-    <t>Séddoune</t>
-  </si>
-  <si>
-    <t>Brill</t>
-  </si>
-  <si>
-    <t>Kari</t>
-  </si>
-  <si>
-    <t>Mach</t>
-  </si>
-  <si>
     <t>Dubois</t>
   </si>
   <si>
-    <t>Habal</t>
+    <t xml:space="preserve">        fff</t>
+  </si>
+  <si>
+    <t>19G99999</t>
+  </si>
+  <si>
+    <t>Loubna_Séddoune</t>
   </si>
 </sst>
 </file>
@@ -285,11 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,456 +530,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="17" max="17" width="33.44140625" customWidth="1"/>
-    <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1"/>
-    <col min="20" max="20" width="22" customWidth="1"/>
-    <col min="21" max="21" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="33.44140625" customWidth="1"/>
+    <col min="16" max="16" width="24" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43552</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44438</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43552</v>
+      </c>
+      <c r="P3" s="2">
+        <v>44438</v>
+      </c>
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" t="s">
-        <v>61</v>
+      <c r="S3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43552</v>
+      </c>
+      <c r="P4" s="2">
+        <v>44438</v>
+      </c>
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R4" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" t="s">
-        <v>62</v>
+      <c r="S4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43552</v>
+      </c>
+      <c r="P5" s="2">
+        <v>44438</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U7" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
